--- a/data/trans_orig/IP25B01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7729A787-2456-4B2F-958D-9A64407BD4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA70211-7BE3-4E0D-A269-71407B491F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2348375C-F034-4E36-8338-614C2019389D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E18C328-F96F-4F10-80D9-0A7EFC9C186F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>7,63%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>1,08%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,49%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
@@ -98,13 +98,13 @@
     <t>2,88%</t>
   </si>
   <si>
-    <t>10,04%</t>
+    <t>9,6%</t>
   </si>
   <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>4,18%</t>
+    <t>4,28%</t>
   </si>
   <si>
     <t>1,88%</t>
@@ -113,7 +113,7 @@
     <t>0,39%</t>
   </si>
   <si>
-    <t>5,19%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
@@ -122,28 +122,28 @@
     <t>11,64%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
   </si>
   <si>
     <t>12,62%</t>
   </si>
   <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
   </si>
   <si>
     <t>12,11%</t>
   </si>
   <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>Menos de 1h</t>
@@ -152,28 +152,28 @@
     <t>83,4%</t>
   </si>
   <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
   </si>
   <si>
     <t>86,58%</t>
   </si>
   <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>84,93%</t>
   </si>
   <si>
-    <t>79,01%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,433 +185,433 @@
     <t>3,89%</t>
   </si>
   <si>
-    <t>1,89%</t>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
   </si>
   <si>
     <t>7,08%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
   </si>
   <si>
     <t>14,59%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
   </si>
   <si>
     <t>14,37%</t>
   </si>
   <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
   </si>
   <si>
     <t>39,71%</t>
   </si>
   <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
   </si>
   <si>
     <t>36,74%</t>
   </si>
   <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>33,49%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>37,67%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
   </si>
   <si>
     <t>37,18%</t>
   </si>
   <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A62C4A-C450-43F5-84AD-0DFF96A8E0C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED98B845-D60B-4EB4-8238-B995F6242BE2}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1476,10 +1476,10 @@
         <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
@@ -1488,13 +1488,13 @@
         <v>24941</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1509,13 +1509,13 @@
         <v>61482</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>101</v>
@@ -1524,13 +1524,13 @@
         <v>63736</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
@@ -1539,13 +1539,13 @@
         <v>125219</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1560,13 +1560,13 @@
         <v>90288</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>131</v>
@@ -1575,13 +1575,13 @@
         <v>78313</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>279</v>
@@ -1590,13 +1590,13 @@
         <v>168602</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,7 +1652,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1664,13 +1664,13 @@
         <v>11818</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>17</v>
@@ -1679,13 +1679,13 @@
         <v>12886</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
@@ -1694,13 +1694,13 @@
         <v>24704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1715,13 +1715,13 @@
         <v>24405</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
         <v>36</v>
@@ -1730,13 +1730,13 @@
         <v>29547</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
@@ -1745,13 +1745,13 @@
         <v>53952</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1766,13 @@
         <v>92645</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H16" s="7">
         <v>103</v>
@@ -1781,13 +1781,13 @@
         <v>77612</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
@@ -1796,13 +1796,13 @@
         <v>170257</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,13 +1817,13 @@
         <v>73609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -1832,13 +1832,13 @@
         <v>56068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
@@ -1847,13 +1847,13 @@
         <v>129677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1921,13 +1921,13 @@
         <v>47633</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -1936,13 +1936,13 @@
         <v>34160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
@@ -1951,13 +1951,13 @@
         <v>81793</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1972,13 @@
         <v>59770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>72</v>
@@ -1987,10 +1987,10 @@
         <v>54483</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>135</v>
@@ -2005,10 +2005,10 @@
         <v>136</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,13 +2023,13 @@
         <v>124997</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>151</v>
@@ -2038,13 +2038,13 @@
         <v>106125</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>300</v>
@@ -2053,13 +2053,13 @@
         <v>231122</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2074,13 +2074,13 @@
         <v>54053</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>77</v>
@@ -2089,13 +2089,13 @@
         <v>61620</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
@@ -2104,13 +2104,13 @@
         <v>115674</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2178,13 +2178,13 @@
         <v>67397</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H24" s="7">
         <v>61</v>
@@ -2193,13 +2193,13 @@
         <v>50848</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2208,13 +2208,13 @@
         <v>118246</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,7 +2229,7 @@
         <v>102024</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>166</v>

--- a/data/trans_orig/IP25B01_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP25B01_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CA70211-7BE3-4E0D-A269-71407B491F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1AE4059-29E8-41FC-91DC-B645E25BB376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0E18C328-F96F-4F10-80D9-0A7EFC9C186F}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{655D36B2-0D90-4009-A87D-0A77F6FED3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="191">
   <si>
     <t>Menores según el número de horas al día que emplean en utilizar aparatos electrónicos entre semana / solo 2023 en 2023 (Tasa respuesta: 98,28%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,547 +71,541 @@
     <t>Más de 3h</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>1,94%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>De 2 a 3h</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>5,4%</t>
+    <t>6,22%</t>
   </si>
   <si>
     <t>De 1 a 2h</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>Menos de 1h</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>78,67%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>Menos de 1h</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>16,63%</t>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
   </si>
   <si>
     <t>11,46%</t>
   </si>
   <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
     <t>16,83%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>40,11%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1026,7 +1020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED98B845-D60B-4EB4-8238-B995F6242BE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86C3CBA-EEED-4C7F-A260-3FBCC1941ECF}">
   <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1144,10 +1138,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>1152</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1159,16 +1153,16 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1315</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>15</v>
@@ -1177,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1152</v>
+        <v>1315</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -1195,31 +1189,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1601</v>
+        <v>425</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>413</v>
+        <v>1824</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>22</v>
@@ -1228,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>2014</v>
+        <v>2249</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1246,10 +1240,10 @@
         <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7">
-        <v>6460</v>
+        <v>6352</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1261,10 +1255,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>6477</v>
+        <v>6677</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1279,7 +1273,7 @@
         <v>23</v>
       </c>
       <c r="N6" s="7">
-        <v>12938</v>
+        <v>13029</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1297,10 +1291,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="7">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>46306</v>
+        <v>44796</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1312,10 +1306,10 @@
         <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="I7" s="7">
-        <v>44454</v>
+        <v>48559</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1330,7 +1324,7 @@
         <v>180</v>
       </c>
       <c r="N7" s="7">
-        <v>90761</v>
+        <v>93355</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1348,25 +1342,25 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
+        <v>98</v>
+      </c>
+      <c r="D8" s="7">
+        <v>51573</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="7">
         <v>110</v>
       </c>
-      <c r="D8" s="7">
-        <v>55520</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="7">
-        <v>98</v>
-      </c>
       <c r="I8" s="7">
-        <v>51345</v>
+        <v>58376</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
@@ -1381,7 +1375,7 @@
         <v>208</v>
       </c>
       <c r="N8" s="7">
-        <v>106865</v>
+        <v>109949</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1401,10 +1395,10 @@
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D9" s="7">
-        <v>6793</v>
+        <v>3803</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>48</v>
@@ -1416,34 +1410,34 @@
         <v>50</v>
       </c>
       <c r="H9" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>3802</v>
+        <v>7365</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M9" s="7">
         <v>16</v>
       </c>
       <c r="N9" s="7">
-        <v>10596</v>
+        <v>11168</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,49 +1446,49 @@
         <v>18</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8527</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
-        <v>16248</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>17286</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8693</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>35</v>
       </c>
       <c r="N10" s="7">
-        <v>24941</v>
+        <v>25813</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1503,49 +1497,49 @@
         <v>26</v>
       </c>
       <c r="C11" s="7">
+        <v>101</v>
+      </c>
+      <c r="D11" s="7">
+        <v>64156</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="7">
         <v>95</v>
       </c>
-      <c r="D11" s="7">
-        <v>61482</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>62962</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H11" s="7">
-        <v>101</v>
-      </c>
-      <c r="I11" s="7">
-        <v>63736</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>196</v>
       </c>
       <c r="N11" s="7">
-        <v>125219</v>
+        <v>127118</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,49 +1548,49 @@
         <v>36</v>
       </c>
       <c r="C12" s="7">
+        <v>131</v>
+      </c>
+      <c r="D12" s="7">
+        <v>78566</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="7">
         <v>148</v>
       </c>
-      <c r="D12" s="7">
-        <v>90288</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F12" s="7" t="s">
+      <c r="I12" s="7">
+        <v>94446</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="7">
-        <v>131</v>
-      </c>
-      <c r="I12" s="7">
-        <v>78313</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>279</v>
       </c>
       <c r="N12" s="7">
-        <v>168602</v>
+        <v>173012</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,25 +1599,25 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
+        <v>251</v>
+      </c>
+      <c r="D13" s="7">
+        <v>155052</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="7">
         <v>275</v>
       </c>
-      <c r="D13" s="7">
-        <v>174811</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="7">
-        <v>251</v>
-      </c>
       <c r="I13" s="7">
-        <v>154545</v>
+        <v>182060</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -1638,7 +1632,7 @@
         <v>526</v>
       </c>
       <c r="N13" s="7">
-        <v>329357</v>
+        <v>337112</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -1652,55 +1646,55 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7">
+        <v>12512</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="7">
         <v>15</v>
       </c>
-      <c r="D14" s="7">
-        <v>11818</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>12506</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="H14" s="7">
-        <v>17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>12886</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>32</v>
       </c>
       <c r="N14" s="7">
-        <v>24704</v>
+        <v>25019</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1709,49 +1703,49 @@
         <v>18</v>
       </c>
       <c r="C15" s="7">
+        <v>36</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30014</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H15" s="7">
         <v>30</v>
       </c>
-      <c r="D15" s="7">
-        <v>24405</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="I15" s="7">
+        <v>25903</v>
+      </c>
+      <c r="J15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="K15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="H15" s="7">
-        <v>36</v>
-      </c>
-      <c r="I15" s="7">
-        <v>29547</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M15" s="7">
         <v>66</v>
       </c>
       <c r="N15" s="7">
-        <v>53952</v>
+        <v>55918</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,49 +1754,49 @@
         <v>26</v>
       </c>
       <c r="C16" s="7">
+        <v>103</v>
+      </c>
+      <c r="D16" s="7">
+        <v>75595</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="7">
         <v>108</v>
       </c>
-      <c r="D16" s="7">
-        <v>92645</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>96369</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H16" s="7">
-        <v>103</v>
-      </c>
-      <c r="I16" s="7">
-        <v>77612</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M16" s="7">
         <v>211</v>
       </c>
       <c r="N16" s="7">
-        <v>170257</v>
+        <v>171965</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,49 +1805,49 @@
         <v>36</v>
       </c>
       <c r="C17" s="7">
+        <v>77</v>
+      </c>
+      <c r="D17" s="7">
+        <v>54950</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="7">
         <v>90</v>
       </c>
-      <c r="D17" s="7">
-        <v>73609</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>77711</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="7">
-        <v>77</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56068</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>167</v>
       </c>
       <c r="N17" s="7">
-        <v>129677</v>
+        <v>132662</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,25 +1856,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>233</v>
+      </c>
+      <c r="D18" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="7">
         <v>243</v>
       </c>
-      <c r="D18" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="7">
-        <v>233</v>
-      </c>
       <c r="I18" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -1895,7 +1889,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -1909,55 +1903,55 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7">
+        <v>52375</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" s="7">
         <v>41</v>
       </c>
-      <c r="D19" s="7">
-        <v>47633</v>
-      </c>
-      <c r="E19" s="7" t="s">
+      <c r="I19" s="7">
+        <v>56676</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="7">
-        <v>37</v>
-      </c>
-      <c r="I19" s="7">
-        <v>34160</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>78</v>
       </c>
       <c r="N19" s="7">
-        <v>81793</v>
+        <v>109051</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,49 +1960,49 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
+        <v>72</v>
+      </c>
+      <c r="D20" s="7">
+        <v>52875</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" s="7">
         <v>77</v>
       </c>
-      <c r="D20" s="7">
-        <v>59770</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="I20" s="7">
+        <v>61004</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="7">
-        <v>72</v>
-      </c>
-      <c r="I20" s="7">
-        <v>54483</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M20" s="7">
         <v>149</v>
       </c>
       <c r="N20" s="7">
-        <v>114253</v>
+        <v>113879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2017,49 +2011,49 @@
         <v>26</v>
       </c>
       <c r="C21" s="7">
+        <v>151</v>
+      </c>
+      <c r="D21" s="7">
+        <v>101862</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="7">
         <v>149</v>
       </c>
-      <c r="D21" s="7">
-        <v>124997</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="7">
+        <v>127821</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="K21" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="H21" s="7">
-        <v>151</v>
-      </c>
-      <c r="I21" s="7">
-        <v>106125</v>
-      </c>
-      <c r="J21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>300</v>
       </c>
       <c r="N21" s="7">
-        <v>231122</v>
+        <v>229683</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,49 +2062,49 @@
         <v>36</v>
       </c>
       <c r="C22" s="7">
+        <v>77</v>
+      </c>
+      <c r="D22" s="7">
+        <v>64185</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="7">
         <v>73</v>
       </c>
-      <c r="D22" s="7">
-        <v>54053</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="I22" s="7">
+        <v>56634</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="7">
-        <v>77</v>
-      </c>
-      <c r="I22" s="7">
-        <v>61620</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>150</v>
       </c>
       <c r="N22" s="7">
-        <v>115674</v>
+        <v>120819</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,25 +2113,25 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
+        <v>337</v>
+      </c>
+      <c r="D23" s="7">
+        <v>271297</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="7">
         <v>340</v>
       </c>
-      <c r="D23" s="7">
-        <v>286453</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" s="7">
-        <v>337</v>
-      </c>
       <c r="I23" s="7">
-        <v>256388</v>
+        <v>302135</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>46</v>
@@ -2152,7 +2146,7 @@
         <v>677</v>
       </c>
       <c r="N23" s="7">
-        <v>542842</v>
+        <v>573432</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>46</v>
@@ -2172,49 +2166,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7">
+        <v>68690</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" s="7">
         <v>67</v>
       </c>
-      <c r="D24" s="7">
-        <v>67397</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="I24" s="7">
+        <v>77863</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H24" s="7">
-        <v>61</v>
-      </c>
-      <c r="I24" s="7">
-        <v>50848</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
       </c>
       <c r="N24" s="7">
-        <v>118246</v>
+        <v>146553</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2223,49 +2217,49 @@
         <v>18</v>
       </c>
       <c r="C25" s="7">
+        <v>121</v>
+      </c>
+      <c r="D25" s="7">
+        <v>91842</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7">
         <v>132</v>
       </c>
-      <c r="D25" s="7">
-        <v>102024</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="I25" s="7">
+        <v>106017</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="7">
-        <v>121</v>
-      </c>
-      <c r="I25" s="7">
-        <v>93136</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>253</v>
       </c>
       <c r="N25" s="7">
-        <v>195160</v>
+        <v>197859</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2274,49 +2268,49 @@
         <v>26</v>
       </c>
       <c r="C26" s="7">
+        <v>366</v>
+      </c>
+      <c r="D26" s="7">
+        <v>247965</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="7">
         <v>364</v>
       </c>
-      <c r="D26" s="7">
-        <v>285585</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="I26" s="7">
+        <v>293829</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="H26" s="7">
-        <v>366</v>
-      </c>
-      <c r="I26" s="7">
-        <v>253951</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M26" s="7">
         <v>730</v>
       </c>
       <c r="N26" s="7">
-        <v>539535</v>
+        <v>541795</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,49 +2319,49 @@
         <v>36</v>
       </c>
       <c r="C27" s="7">
+        <v>371</v>
+      </c>
+      <c r="D27" s="7">
+        <v>242497</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H27" s="7">
         <v>405</v>
       </c>
-      <c r="D27" s="7">
-        <v>264257</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="7" t="s">
+      <c r="I27" s="7">
+        <v>277350</v>
+      </c>
+      <c r="J27" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="H27" s="7">
-        <v>371</v>
-      </c>
-      <c r="I27" s="7">
-        <v>240456</v>
-      </c>
-      <c r="J27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>776</v>
       </c>
       <c r="N27" s="7">
-        <v>504713</v>
+        <v>519847</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,25 +2370,25 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
+        <v>919</v>
+      </c>
+      <c r="D28" s="7">
+        <v>650994</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="7">
         <v>968</v>
       </c>
-      <c r="D28" s="7">
-        <v>719263</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="7">
-        <v>919</v>
-      </c>
       <c r="I28" s="7">
-        <v>638391</v>
+        <v>755060</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>46</v>
@@ -2409,7 +2403,7 @@
         <v>1887</v>
       </c>
       <c r="N28" s="7">
-        <v>1357654</v>
+        <v>1406055</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>46</v>
@@ -2423,7 +2417,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
